--- a/esg-engine/files/Cases/StudentAttendanceSystemPL/FullProductReduction/studentAttendanceSystem.xlsx
+++ b/esg-engine/files/Cases/StudentAttendanceSystemPL/FullProductReduction/studentAttendanceSystem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="88">
   <si>
     <t>Measurement #</t>
   </si>
@@ -289,6 +289,9 @@
   <si>
     <t>Full Product</t>
   </si>
+  <si>
+    <t>AVG:</t>
+  </si>
 </sst>
 </file>
 
@@ -526,12 +529,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -568,6 +565,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +589,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -854,28 +857,28 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -924,8 +927,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="51"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -972,8 +975,8 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="51"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1020,8 +1023,8 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="51"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1068,8 +1071,8 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1116,8 +1119,8 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="51"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1164,8 +1167,8 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1212,8 +1215,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1260,8 +1263,8 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1308,8 +1311,8 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1356,8 +1359,8 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1404,8 +1407,8 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="51"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>12.629999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
@@ -1484,8 +1487,8 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1534,8 +1537,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
       <c r="B16" s="1">
         <v>1</v>
       </c>
@@ -1582,8 +1585,8 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
       <c r="B17" s="1">
         <v>2</v>
       </c>
@@ -1630,8 +1633,8 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="51"/>
       <c r="B18" s="1">
         <v>3</v>
       </c>
@@ -1678,8 +1681,8 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
       <c r="B19" s="1">
         <v>4</v>
       </c>
@@ -1726,8 +1729,8 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -1774,8 +1777,8 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -1822,8 +1825,8 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="51"/>
       <c r="B22" s="1">
         <v>7</v>
       </c>
@@ -1870,8 +1873,8 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="51"/>
       <c r="B23" s="1">
         <v>8</v>
       </c>
@@ -1918,8 +1921,8 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="51"/>
       <c r="B24" s="1">
         <v>9</v>
       </c>
@@ -1966,8 +1969,8 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="51"/>
       <c r="B25" s="1">
         <v>10</v>
       </c>
@@ -2014,8 +2017,8 @@
         <v>11.12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="51"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2076,8 +2079,8 @@
         <v>11.141</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2126,8 +2129,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="51"/>
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -2174,8 +2177,8 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="51"/>
       <c r="B31" s="1">
         <v>2</v>
       </c>
@@ -2222,8 +2225,8 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
       <c r="B32" s="1">
         <v>3</v>
       </c>
@@ -2270,8 +2273,8 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
       <c r="B33" s="1">
         <v>4</v>
       </c>
@@ -2318,8 +2321,8 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
       <c r="B34" s="1">
         <v>5</v>
       </c>
@@ -2366,8 +2369,8 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
       <c r="B35" s="1">
         <v>6</v>
       </c>
@@ -2414,8 +2417,8 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="51"/>
       <c r="B36" s="1">
         <v>7</v>
       </c>
@@ -2462,8 +2465,8 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
       <c r="B37" s="1">
         <v>8</v>
       </c>
@@ -2510,8 +2513,8 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="51"/>
       <c r="B38" s="1">
         <v>9</v>
       </c>
@@ -2558,8 +2561,8 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
       <c r="B39" s="1">
         <v>10</v>
       </c>
@@ -2606,8 +2609,8 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="51"/>
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>10.869000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="34"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
@@ -2686,8 +2689,8 @@
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2736,8 +2739,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="51"/>
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -2784,8 +2787,8 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="51"/>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -2832,8 +2835,8 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="51"/>
       <c r="B46" s="1">
         <v>3</v>
       </c>
@@ -2880,8 +2883,8 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="51"/>
       <c r="B47" s="1">
         <v>4</v>
       </c>
@@ -2928,8 +2931,8 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="51"/>
       <c r="B48" s="1">
         <v>5</v>
       </c>
@@ -2976,8 +2979,8 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="51"/>
       <c r="B49" s="1">
         <v>6</v>
       </c>
@@ -3024,8 +3027,8 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
       <c r="B50" s="1">
         <v>7</v>
       </c>
@@ -3072,8 +3075,8 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="51"/>
       <c r="B51" s="1">
         <v>8</v>
       </c>
@@ -3120,8 +3123,8 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="51"/>
       <c r="B52" s="1">
         <v>9</v>
       </c>
@@ -3168,8 +3171,8 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="51"/>
       <c r="B53" s="1">
         <v>10</v>
       </c>
@@ -3216,8 +3219,8 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="51"/>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
@@ -3278,8 +3281,8 @@
         <v>11.141</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3328,8 +3331,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="51"/>
       <c r="B58" s="1">
         <v>1</v>
       </c>
@@ -3376,8 +3379,8 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="51"/>
       <c r="B59" s="1">
         <v>2</v>
       </c>
@@ -3424,8 +3427,8 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="51"/>
       <c r="B60" s="1">
         <v>3</v>
       </c>
@@ -3472,8 +3475,8 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" s="51"/>
       <c r="B61" s="1">
         <v>4</v>
       </c>
@@ -3520,8 +3523,8 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" s="51"/>
       <c r="B62" s="1">
         <v>5</v>
       </c>
@@ -3568,8 +3571,8 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" s="51"/>
       <c r="B63" s="1">
         <v>6</v>
       </c>
@@ -3616,8 +3619,8 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" s="51"/>
       <c r="B64" s="1">
         <v>7</v>
       </c>
@@ -3664,8 +3667,8 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65" s="51"/>
       <c r="B65" s="1">
         <v>8</v>
       </c>
@@ -3712,8 +3715,8 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" s="51"/>
       <c r="B66" s="1">
         <v>9</v>
       </c>
@@ -3760,8 +3763,8 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" s="51"/>
       <c r="B67" s="1">
         <v>10</v>
       </c>
@@ -3808,8 +3811,8 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" s="51"/>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>11.111000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="35"/>
       <c r="C69" s="36"/>
@@ -3888,8 +3891,8 @@
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3938,8 +3941,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" s="51"/>
       <c r="B72" s="1">
         <v>1</v>
       </c>
@@ -3986,8 +3989,8 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" s="51"/>
       <c r="B73" s="1">
         <v>2</v>
       </c>
@@ -4034,8 +4037,8 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" s="51"/>
       <c r="B74" s="1">
         <v>3</v>
       </c>
@@ -4082,8 +4085,8 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="51"/>
       <c r="B75" s="1">
         <v>4</v>
       </c>
@@ -4130,8 +4133,8 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" s="51"/>
       <c r="B76" s="1">
         <v>5</v>
       </c>
@@ -4178,8 +4181,8 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" s="51"/>
       <c r="B77" s="1">
         <v>6</v>
       </c>
@@ -4226,8 +4229,8 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" s="51"/>
       <c r="B78" s="1">
         <v>7</v>
       </c>
@@ -4274,8 +4277,8 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" s="51"/>
       <c r="B79" s="1">
         <v>8</v>
       </c>
@@ -4322,8 +4325,8 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80" s="51"/>
       <c r="B80" s="1">
         <v>9</v>
       </c>
@@ -4370,8 +4373,8 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81" s="51"/>
       <c r="B81" s="1">
         <v>10</v>
       </c>
@@ -4418,8 +4421,8 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="51"/>
       <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
@@ -4480,8 +4483,8 @@
         <v>11.276</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A85" s="51" t="s">
         <v>48</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4530,8 +4533,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86" s="51"/>
       <c r="B86" s="1">
         <v>1</v>
       </c>
@@ -4578,8 +4581,8 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" s="51"/>
       <c r="B87" s="1">
         <v>2</v>
       </c>
@@ -4626,8 +4629,8 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="51"/>
       <c r="B88" s="1">
         <v>3</v>
       </c>
@@ -4674,8 +4677,8 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" s="51"/>
       <c r="B89" s="1">
         <v>4</v>
       </c>
@@ -4722,8 +4725,8 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" s="51"/>
       <c r="B90" s="1">
         <v>5</v>
       </c>
@@ -4770,8 +4773,8 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="51"/>
       <c r="B91" s="1">
         <v>6</v>
       </c>
@@ -4818,8 +4821,8 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" s="51"/>
       <c r="B92" s="1">
         <v>7</v>
       </c>
@@ -4866,8 +4869,8 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93" s="51"/>
       <c r="B93" s="1">
         <v>8</v>
       </c>
@@ -4914,8 +4917,8 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A94" s="51"/>
       <c r="B94" s="1">
         <v>9</v>
       </c>
@@ -4962,8 +4965,8 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A95" s="51"/>
       <c r="B95" s="1">
         <v>10</v>
       </c>
@@ -5010,8 +5013,8 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A96" s="51"/>
       <c r="B96" s="2" t="s">
         <v>1</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>11.937000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="35"/>
       <c r="C97" s="36"/>
@@ -5090,8 +5093,8 @@
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="37" t="s">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5140,8 +5143,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" s="51"/>
       <c r="B100" s="1">
         <v>1</v>
       </c>
@@ -5188,8 +5191,8 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101" s="51"/>
       <c r="B101" s="1">
         <v>2</v>
       </c>
@@ -5236,8 +5239,8 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102" s="51"/>
       <c r="B102" s="1">
         <v>3</v>
       </c>
@@ -5284,8 +5287,8 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" s="51"/>
       <c r="B103" s="1">
         <v>4</v>
       </c>
@@ -5332,8 +5335,8 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A104" s="51"/>
       <c r="B104" s="1">
         <v>5</v>
       </c>
@@ -5380,8 +5383,8 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" s="51"/>
       <c r="B105" s="1">
         <v>6</v>
       </c>
@@ -5428,8 +5431,8 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A106" s="51"/>
       <c r="B106" s="1">
         <v>7</v>
       </c>
@@ -5476,8 +5479,8 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A107" s="51"/>
       <c r="B107" s="1">
         <v>8</v>
       </c>
@@ -5524,8 +5527,8 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A108" s="51"/>
       <c r="B108" s="1">
         <v>9</v>
       </c>
@@ -5572,8 +5575,8 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A109" s="51"/>
       <c r="B109" s="1">
         <v>10</v>
       </c>
@@ -5620,8 +5623,8 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A110" s="51"/>
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
@@ -5684,14 +5687,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A71:A82"/>
+    <mergeCell ref="A85:A96"/>
+    <mergeCell ref="A99:A110"/>
     <mergeCell ref="A15:A26"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A29:A40"/>
     <mergeCell ref="A43:A54"/>
     <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A71:A82"/>
-    <mergeCell ref="A85:A96"/>
-    <mergeCell ref="A99:A110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5706,34 +5709,34 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" customWidth="1"/>
+    <col min="4" max="4" width="50.1796875" customWidth="1"/>
+    <col min="5" max="5" width="44.26953125" customWidth="1"/>
+    <col min="6" max="6" width="45.1796875" customWidth="1"/>
+    <col min="7" max="7" width="45.453125" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" customWidth="1"/>
-    <col min="12" max="12" width="41.140625" customWidth="1"/>
-    <col min="13" max="14" width="49.42578125" customWidth="1"/>
-    <col min="15" max="15" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.1796875" customWidth="1"/>
+    <col min="10" max="10" width="50.7265625" customWidth="1"/>
+    <col min="11" max="11" width="46.81640625" customWidth="1"/>
+    <col min="12" max="12" width="41.1796875" customWidth="1"/>
+    <col min="13" max="14" width="49.453125" customWidth="1"/>
+    <col min="15" max="15" width="42.1796875" customWidth="1"/>
     <col min="16" max="16" width="39" customWidth="1"/>
-    <col min="17" max="17" width="53.7109375" customWidth="1"/>
-    <col min="18" max="18" width="50.85546875" customWidth="1"/>
-    <col min="19" max="19" width="44.5703125" customWidth="1"/>
-    <col min="20" max="20" width="49.140625" customWidth="1"/>
-    <col min="21" max="21" width="46.140625" customWidth="1"/>
+    <col min="17" max="17" width="53.7265625" customWidth="1"/>
+    <col min="18" max="18" width="50.81640625" customWidth="1"/>
+    <col min="19" max="19" width="44.54296875" customWidth="1"/>
+    <col min="20" max="20" width="49.1796875" customWidth="1"/>
+    <col min="21" max="21" width="46.1796875" customWidth="1"/>
     <col min="22" max="22" width="46" customWidth="1"/>
-    <col min="23" max="23" width="39.85546875" customWidth="1"/>
-    <col min="24" max="24" width="51.5703125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="39.81640625" customWidth="1"/>
+    <col min="24" max="24" width="51.54296875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5804,8 +5807,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1">
@@ -5878,8 +5881,8 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="51"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5950,8 +5953,8 @@
         <v>12.86</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -6022,8 +6025,8 @@
         <v>12.59</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="51"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -6094,8 +6097,8 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -6166,8 +6169,8 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -6238,8 +6241,8 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -6310,8 +6313,8 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -6382,8 +6385,8 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -6454,8 +6457,8 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="51"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -6526,8 +6529,8 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="51"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>14.113</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="27" t="s">
         <v>0</v>
@@ -6692,8 +6695,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="1">
@@ -6766,8 +6769,8 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="51"/>
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -6838,8 +6841,8 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -6910,8 +6913,8 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
       <c r="B20" s="1">
         <v>4</v>
       </c>
@@ -6982,8 +6985,8 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
       <c r="B21" s="1">
         <v>5</v>
       </c>
@@ -7054,8 +7057,8 @@
         <v>11.24</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="51"/>
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -7126,8 +7129,8 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="51"/>
       <c r="B23" s="1">
         <v>7</v>
       </c>
@@ -7198,8 +7201,8 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="51"/>
       <c r="B24" s="1">
         <v>8</v>
       </c>
@@ -7270,8 +7273,8 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="51"/>
       <c r="B25" s="1">
         <v>9</v>
       </c>
@@ -7342,8 +7345,8 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="51"/>
       <c r="B26" s="1">
         <v>10</v>
       </c>
@@ -7414,8 +7417,8 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="51"/>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>13.008000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="28" t="s">
         <v>0</v>
@@ -7580,8 +7583,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="1">
@@ -7654,8 +7657,8 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -7726,8 +7729,8 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -7798,8 +7801,8 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -7870,8 +7873,8 @@
         <v>15.32</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
       <c r="B35" s="1">
         <v>5</v>
       </c>
@@ -7942,8 +7945,8 @@
         <v>16.059999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" s="51"/>
       <c r="B36" s="1">
         <v>6</v>
       </c>
@@ -8014,8 +8017,8 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
       <c r="B37" s="1">
         <v>7</v>
       </c>
@@ -8086,8 +8089,8 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" s="51"/>
       <c r="B38" s="1">
         <v>8</v>
       </c>
@@ -8158,8 +8161,8 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
       <c r="B39" s="1">
         <v>9</v>
       </c>
@@ -8230,8 +8233,8 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" s="51"/>
       <c r="B40" s="1">
         <v>10</v>
       </c>
@@ -8302,8 +8305,8 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" s="51"/>
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>12.965</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="28" t="s">
         <v>0</v>
@@ -8468,8 +8471,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1">
@@ -8542,8 +8545,8 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" s="51"/>
       <c r="B46" s="1">
         <v>2</v>
       </c>
@@ -8614,8 +8617,8 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" s="51"/>
       <c r="B47" s="1">
         <v>3</v>
       </c>
@@ -8686,8 +8689,8 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" s="51"/>
       <c r="B48" s="1">
         <v>4</v>
       </c>
@@ -8758,8 +8761,8 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A49" s="51"/>
       <c r="B49" s="1">
         <v>5</v>
       </c>
@@ -8830,8 +8833,8 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
       <c r="B50" s="1">
         <v>6</v>
       </c>
@@ -8902,8 +8905,8 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A51" s="51"/>
       <c r="B51" s="1">
         <v>7</v>
       </c>
@@ -8974,8 +8977,8 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A52" s="51"/>
       <c r="B52" s="1">
         <v>8</v>
       </c>
@@ -9046,8 +9049,8 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A53" s="51"/>
       <c r="B53" s="1">
         <v>9</v>
       </c>
@@ -9118,8 +9121,8 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A54" s="51"/>
       <c r="B54" s="1">
         <v>10</v>
       </c>
@@ -9190,8 +9193,8 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A55" s="51"/>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>12.618</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>0</v>
@@ -9356,8 +9359,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A59" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="1">
@@ -9430,8 +9433,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A60" s="51"/>
       <c r="B60" s="1">
         <v>2</v>
       </c>
@@ -9502,8 +9505,8 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A61" s="51"/>
       <c r="B61" s="1">
         <v>3</v>
       </c>
@@ -9574,8 +9577,8 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62" s="51"/>
       <c r="B62" s="1">
         <v>4</v>
       </c>
@@ -9646,8 +9649,8 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A63" s="51"/>
       <c r="B63" s="1">
         <v>5</v>
       </c>
@@ -9718,8 +9721,8 @@
         <v>14.31</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A64" s="51"/>
       <c r="B64" s="1">
         <v>6</v>
       </c>
@@ -9790,8 +9793,8 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A65" s="51"/>
       <c r="B65" s="1">
         <v>7</v>
       </c>
@@ -9862,8 +9865,8 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A66" s="51"/>
       <c r="B66" s="1">
         <v>8</v>
       </c>
@@ -9934,8 +9937,8 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A67" s="51"/>
       <c r="B67" s="1">
         <v>9</v>
       </c>
@@ -10006,8 +10009,8 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A68" s="51"/>
       <c r="B68" s="1">
         <v>10</v>
       </c>
@@ -10078,8 +10081,8 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A69" s="51"/>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>12.702999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="28" t="s">
         <v>0</v>
@@ -10244,8 +10247,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A73" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B73" s="1">
@@ -10318,8 +10321,8 @@
         <v>11.59</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A74" s="51"/>
       <c r="B74" s="1">
         <v>2</v>
       </c>
@@ -10390,8 +10393,8 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A75" s="51"/>
       <c r="B75" s="1">
         <v>3</v>
       </c>
@@ -10462,8 +10465,8 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A76" s="51"/>
       <c r="B76" s="1">
         <v>4</v>
       </c>
@@ -10534,8 +10537,8 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A77" s="51"/>
       <c r="B77" s="1">
         <v>5</v>
       </c>
@@ -10606,8 +10609,8 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A78" s="51"/>
       <c r="B78" s="1">
         <v>6</v>
       </c>
@@ -10678,8 +10681,8 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A79" s="51"/>
       <c r="B79" s="1">
         <v>7</v>
       </c>
@@ -10750,8 +10753,8 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A80" s="51"/>
       <c r="B80" s="1">
         <v>8</v>
       </c>
@@ -10822,8 +10825,8 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A81" s="51"/>
       <c r="B81" s="1">
         <v>9</v>
       </c>
@@ -10894,8 +10897,8 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A82" s="51"/>
       <c r="B82" s="1">
         <v>10</v>
       </c>
@@ -10966,8 +10969,8 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A83" s="51"/>
       <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="10"/>
       <c r="B86" s="28" t="s">
         <v>0</v>
@@ -11132,8 +11135,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A87" s="51" t="s">
         <v>48</v>
       </c>
       <c r="B87" s="1">
@@ -11206,8 +11209,8 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A88" s="51"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -11278,8 +11281,8 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A89" s="51"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -11350,8 +11353,8 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A90" s="51"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -11422,8 +11425,8 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A91" s="51"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -11494,8 +11497,8 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A92" s="51"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -11566,8 +11569,8 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A93" s="51"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -11638,8 +11641,8 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A94" s="51"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -11710,8 +11713,8 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A95" s="51"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -11782,8 +11785,8 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A96" s="51"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -11854,8 +11857,8 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A97" s="51"/>
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="28" t="s">
         <v>0</v>
@@ -12020,8 +12023,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A101" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B101" s="1">
@@ -12094,8 +12097,8 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A102" s="51"/>
       <c r="B102" s="1">
         <v>2</v>
       </c>
@@ -12166,8 +12169,8 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A103" s="51"/>
       <c r="B103" s="1">
         <v>3</v>
       </c>
@@ -12238,8 +12241,8 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A104" s="51"/>
       <c r="B104" s="1">
         <v>4</v>
       </c>
@@ -12310,8 +12313,8 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A105" s="51"/>
       <c r="B105" s="1">
         <v>5</v>
       </c>
@@ -12382,8 +12385,8 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A106" s="51"/>
       <c r="B106" s="1">
         <v>6</v>
       </c>
@@ -12454,8 +12457,8 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A107" s="51"/>
       <c r="B107" s="1">
         <v>7</v>
       </c>
@@ -12526,8 +12529,8 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A108" s="51"/>
       <c r="B108" s="1">
         <v>8</v>
       </c>
@@ -12598,8 +12601,8 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A109" s="51"/>
       <c r="B109" s="1">
         <v>9</v>
       </c>
@@ -12670,8 +12673,8 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A110" s="51"/>
       <c r="B110" s="1">
         <v>10</v>
       </c>
@@ -12742,8 +12745,8 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A111" s="51"/>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
@@ -12859,32 +12862,32 @@
       <selection activeCell="O2" sqref="O2:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" style="16" customWidth="1"/>
-    <col min="3" max="14" width="8.7109375" style="17"/>
-    <col min="15" max="15" width="107.42578125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="17"/>
+    <col min="1" max="1" width="4.1796875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="107.453125" style="16" customWidth="1"/>
+    <col min="3" max="14" width="8.7265625" style="17"/>
+    <col min="15" max="15" width="107.453125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" style="17" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="19"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12964,7 +12967,7 @@
         <v>13.647</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13006,7 +13009,7 @@
         <v>13.647</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13048,7 +13051,7 @@
         <v>13.419999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13090,7 +13093,7 @@
         <v>14.050999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13132,7 +13135,7 @@
         <v>14.571999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>15.216999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>14.077000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13258,7 +13261,7 @@
         <v>20.250999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13300,7 +13303,7 @@
         <v>13.962999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13342,7 +13345,7 @@
         <v>14.413999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>15.068000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>15.816999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>14.074999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13510,7 +13513,7 @@
         <v>16.965999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>15.881</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13594,7 +13597,7 @@
         <v>14.275</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>15.257</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13678,7 +13681,7 @@
         <v>15.024000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13720,7 +13723,7 @@
         <v>15.285999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13762,7 +13765,7 @@
         <v>14.533000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13804,7 +13807,7 @@
         <v>14.878</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>14.113</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B26" s="26" t="s">
         <v>42</v>
       </c>
@@ -13868,25 +13871,25 @@
       <selection activeCell="Q1" sqref="Q1:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13930,7 +13933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -13977,7 +13980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14024,7 +14027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -14071,7 +14074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -14118,7 +14121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -14165,7 +14168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -14212,7 +14215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -14272,13 +14275,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
@@ -14286,7 +14289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
@@ -14294,7 +14297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
@@ -14302,7 +14305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>20</v>
       </c>
@@ -14310,7 +14313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
@@ -14318,7 +14321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>22</v>
       </c>
@@ -14326,7 +14329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
@@ -14334,7 +14337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
@@ -14342,7 +14345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>25</v>
       </c>
@@ -14350,7 +14353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>26</v>
       </c>
@@ -14358,7 +14361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>27</v>
       </c>
@@ -14366,7 +14369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>28</v>
       </c>
@@ -14374,7 +14377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
@@ -14382,7 +14385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
@@ -14390,7 +14393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>31</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>32</v>
       </c>
@@ -14406,7 +14409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
@@ -14414,7 +14417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>34</v>
       </c>
@@ -14422,7 +14425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>35</v>
       </c>
@@ -14430,7 +14433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>36</v>
       </c>
@@ -14438,7 +14441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>37</v>
       </c>
@@ -14446,7 +14449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>38</v>
       </c>
@@ -14454,7 +14457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
@@ -14475,252 +14478,252 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="49">
         <v>7</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="49">
         <v>6</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="49">
         <v>7</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="49">
         <v>5</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="49">
         <v>6</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="49">
         <v>5</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="49">
         <v>5</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="49">
         <v>5</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="49">
         <v>5</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="49">
         <v>6</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="49">
         <v>8</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="49">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="49">
         <v>5</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="49">
         <v>5</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="49">
         <v>6</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="49">
         <v>8</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="49">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="49">
         <v>7</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="49">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="49">
         <v>7</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="49">
         <v>6</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="49">
         <v>8</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="49">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="49">
         <v>7</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="49">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="49">
         <v>6</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="49">
         <v>6</v>
       </c>
     </row>
@@ -14738,109 +14741,109 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="49">
         <v>45</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="49">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="49">
         <v>45</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="49">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="49">
         <v>46</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="49">
         <v>46</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="49">
         <v>45</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="49">
         <v>45</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="49">
         <v>45</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="49">
         <v>45</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>84</v>
       </c>
     </row>
@@ -14855,459 +14858,588 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G33:G34"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" style="47" customWidth="1"/>
+    <col min="1" max="1" width="21" style="45" customWidth="1"/>
     <col min="2" max="2" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="24.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <v>17.03</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="38">
         <v>15.69</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>14.87</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="38">
         <v>14.17</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="38">
         <v>14.93</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="38">
         <v>15.28</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="38">
         <v>15.27</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="38">
         <v>16.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J15" si="0">AVERAGE(B2:I2)</f>
+        <v>15.453749999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <v>16.940000000000001</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="38">
         <v>15.89</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="38">
         <v>16.079999999999998</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="38">
         <v>14.81</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>14.59</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="38">
         <v>14.9</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="38">
         <v>14.7</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="38">
         <v>15.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>15.433750000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>11.74</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>11.23</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>11.89</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>14.21</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>11.18</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>13.25</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="38">
         <v>11.93</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <v>11.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>12.113750000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <v>13</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>11.52</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>11.62</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="38">
         <v>10.9</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>10.85</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>12.52</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>11.32</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>12.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>11.726249999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>23.94</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="38">
         <v>14.19</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="38">
         <v>14.41</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <v>14.27</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>14.67</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>14.45</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>16.670000000000002</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>15.937500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>13.72</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="38">
         <v>11.64</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <v>11.93</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <v>11.38</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>11.08</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <v>12.18</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>11.31</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>11.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>11.837500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>16.68</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>14.63</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>14.21</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>15.02</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>14.46</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <v>15</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>14.59</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>14.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>14.946250000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>17.89</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>16.809999999999999</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <v>16.95</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
         <v>16.48</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <v>16.3</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <v>17.07</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>19.11</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>15.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>17.041250000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <v>13.2</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="38">
         <v>12.94</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="38">
         <v>11.49</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="38">
         <v>11.08</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="38">
         <v>11.77</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <v>11.64</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="38">
         <v>11.65</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="38">
         <v>11.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>11.867500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="38">
         <v>15.97</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="38">
         <v>14.69</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <v>14.39</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="38">
         <v>16.43</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <v>15.19</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="38">
         <v>14.64</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="38">
         <v>14.1</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="38">
         <v>14.33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>14.967499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="38">
         <v>19.93</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="38">
         <v>14.33</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="38">
         <v>14.1</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="38">
         <v>13.92</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <v>13.73</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <v>14.12</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <v>14.35</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>18.46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>15.3675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <v>12.67</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <v>12.44</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <v>12.16</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <v>11.66</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>11.18</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="38">
         <v>11.38</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="38">
         <v>11.65</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="38">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>11.82375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <v>12.92</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="38">
         <v>10.96</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="38">
         <v>11.42</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <v>11.08</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>11.61</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>11.69</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="38">
         <v>11.65</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>11.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>11.627500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="38">
         <v>12.63</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="38">
         <v>11.14</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="38">
         <v>10.87</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <v>11.14</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <v>11.11</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="38">
         <v>11.28</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="38">
         <v>11.94</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="38">
         <v>12.49</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>11.574999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="10">
+        <f>AVERAGE(B2:B15)</f>
+        <v>15.589999999999998</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" ref="C16:I16" si="1">AVERAGE(C2:C15)</f>
+        <v>13.435714285714287</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.313571428571425</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.325000000000001</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.046428571428569</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.528571428571428</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.588571428571429</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.725714285714288</v>
+      </c>
+      <c r="J16" s="10">
+        <f>AVERAGE(B16:I16)</f>
+        <v>13.694196428571427</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J17" s="10">
+        <f>MAX(J2:J15)</f>
+        <v>17.041250000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J18" s="10">
+        <f>MIN(J2:J15)</f>
+        <v>11.574999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
+        <f>MIN(B16:I16)</f>
+        <v>13.046428571428569</v>
+      </c>
+      <c r="C20" s="10">
+        <f>MAX(B2:I15)</f>
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
+        <f>MAX(B16:I16)</f>
+        <v>15.589999999999998</v>
+      </c>
+      <c r="C21" s="10">
+        <f>MIN(B2:I16)</f>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
@@ -15321,690 +15453,842 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="97" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <v>13.65</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="38">
         <v>13.13</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>14.56</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="38">
         <v>12.65</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="38">
         <v>12.95</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="38">
         <v>13.69</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="38">
         <v>14.27</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="38">
         <v>13.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="J2">
+        <f>AVERAGE(B2:I2)</f>
+        <v>13.553749999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <v>13.65</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="38">
         <v>13.34</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="38">
         <v>14.15</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="38">
         <v>12.48</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>13.2</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="38">
         <v>12.4</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="38">
         <v>13.7</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="38">
         <v>13.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="J3">
+        <f t="shared" ref="J3:J23" si="0">AVERAGE(B3:I3)</f>
+        <v>13.242500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>13.42</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>13.06</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>12.42</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>13.56</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>13.68</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>13.55</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="38">
         <v>13.68</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <v>13.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>13.322500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <v>14.05</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>11.91</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>12.08</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="38">
         <v>12.97</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>13.09</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>12.61</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>11.93</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>13.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>12.711249999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>14.57</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="38">
         <v>12.39</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="38">
         <v>13</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <v>12.81</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>12.13</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>12.55</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>13.13</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>12.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>12.831250000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>15.22</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="38">
         <v>13.52</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <v>11.73</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <v>12.96</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>12.87</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <v>13.04</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>12.74</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>12.55</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>13.078749999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>14.08</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>13.64</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>13.04</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>12.54</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>12.52</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <v>12.68</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>12.64</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>12.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>12.953749999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>20.25</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>12.75</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <v>13.15</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
         <v>12.48</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <v>12.48</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <v>12.09</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>13.32</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>12.29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>13.60125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <v>13.96</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="38">
         <v>13.11</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="38">
         <v>12.52</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="38">
         <v>13.29</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="38">
         <v>12.65</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <v>12.33</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="38">
         <v>12.97</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="38">
         <v>13.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>12.9825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="38">
         <v>14.41</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="38">
         <v>14.35</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <v>13.6</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="38">
         <v>13.16</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <v>12.44</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="38">
         <v>13.06</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="38">
         <v>12.26</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="38">
         <v>13.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>13.3675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="38">
         <v>15.07</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="38">
         <v>13.3</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="38">
         <v>12.39</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="38">
         <v>12.11</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <v>12.54</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <v>12.59</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <v>12.76</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>12.28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <v>15.82</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <v>13.27</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <v>17.190000000000001</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <v>12.64</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>12.54</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="38">
         <v>12.95</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="38">
         <v>13.25</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="38">
         <v>12.78</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>13.805000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <v>14.08</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="38">
         <v>14.27</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="38">
         <v>16.8</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <v>12.39</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>12.72</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>12.04</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="38">
         <v>14.07</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>13.665000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="38">
         <v>16.97</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="38">
         <v>13.73</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="38">
         <v>15.12</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <v>13.33</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <v>13.27</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="38">
         <v>13.19</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="38">
         <v>17.309999999999999</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="38">
         <v>13.18</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>14.512499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="38">
         <v>15.88</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="38">
         <v>12.76</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="38">
         <v>15.27</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>12.97</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <v>13.78</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="38">
         <v>12.02</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="38">
         <v>12.14</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="38">
         <v>12.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>13.454999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="38">
         <v>14.28</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="38">
         <v>12.68</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="38">
         <v>13.12</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <v>12.92</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="38">
         <v>12.55</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="38">
         <v>12.07</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="38">
         <v>12.5</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="38">
         <v>12.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>12.858750000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="38">
         <v>15.26</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>12.53</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <v>12.95</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <v>13.21</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <v>13.2</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="38">
         <v>12.84</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="38">
         <v>12.79</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="38">
         <v>13.59</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>13.296250000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <v>15.02</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="38">
         <v>12.81</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="38">
         <v>12.9</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="38">
         <v>13.53</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <v>13.37</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="38">
         <v>12.27</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="38">
         <v>12.36</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="38">
         <v>12.59</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>13.106249999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="38">
         <v>15.29</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>11.85</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="38">
         <v>13.13</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <v>12.09</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <v>11.74</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="38">
         <v>12.29</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="38">
         <v>12.82</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="38">
         <v>13.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>12.811249999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="38">
         <v>14.53</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="38">
         <v>12.84</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="38">
         <v>12.76</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="38">
         <v>13.31</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="38">
         <v>12.45</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="38">
         <v>12.48</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="38">
         <v>12.27</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="38">
         <v>13.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="38">
         <v>14.88</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="38">
         <v>13.88</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="38">
         <v>13.34</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="38">
         <v>12.37</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="38">
         <v>13.56</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="38">
         <v>13.07</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="38">
         <v>12.99</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="38">
         <v>13.61</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>13.462499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="38">
         <v>14.11</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="38">
         <v>13.01</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="38">
         <v>12.97</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="38">
         <v>12.62</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <v>12.7</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="38">
         <v>12.27</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="38">
         <v>13.1</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="38">
         <v>12.48</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>12.907499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="40">
+        <f>AVERAGE(B2:B23)</f>
+        <v>14.929545454545455</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" ref="C24:I24" si="1">AVERAGE(C2:C23)</f>
+        <v>13.096818181818181</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" si="1"/>
+        <v>13.554090909090911</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="1"/>
+        <v>12.835909090909091</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="1"/>
+        <v>12.837727272727273</v>
+      </c>
+      <c r="G24" s="40">
+        <f t="shared" si="1"/>
+        <v>12.639999999999999</v>
+      </c>
+      <c r="H24" s="40">
+        <f t="shared" si="1"/>
+        <v>13.136363636363633</v>
+      </c>
+      <c r="I24" s="40">
+        <f t="shared" si="1"/>
+        <v>12.935</v>
+      </c>
+      <c r="K24" s="40">
+        <f>MIN(B24:I24)</f>
+        <v>12.639999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K25" s="40">
+        <f>MAX(B24:I24)</f>
+        <v>14.929545454545455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="40">
+        <f>MAX(B2:I23)</f>
+        <v>20.25</v>
+      </c>
+      <c r="J27">
+        <f>MIN(J2:J23)</f>
+        <v>12.711249999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="40">
+        <f>MIN(B2:I23)</f>
+        <v>11.73</v>
+      </c>
+      <c r="J28">
+        <f>MAX(J3:J24)</f>
+        <v>14.512499999999999</v>
       </c>
     </row>
   </sheetData>
